--- a/models/Multi_dimentional_data_covar/03_Keine_Wahlabsicht_1.xlsx
+++ b/models/Multi_dimentional_data_covar/03_Keine_Wahlabsicht_1.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-420" yWindow="150" windowWidth="15480" windowHeight="11010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="92512"/>
+  <calcPr calcId="92512" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>weiß nicht, ob bzw. welche Partei ich wählen würde</t>
   </si>
@@ -51,7 +56,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -67,6 +71,9 @@
   </si>
   <si>
     <t>28.04.2017</t>
+  </si>
+  <si>
+    <t>Datum</t>
   </si>
 </sst>
 </file>
@@ -155,14 +162,14 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -170,23 +177,23 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -240,7 +247,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Standard 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -543,19 +550,19 @@
   <dimension ref="B1:G428"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A413" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5:G5"/>
+      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="1.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="1.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.1640625" customWidth="1"/>
+    <col min="4" max="4" width="12.5" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:7">
       <c r="B1" s="22" t="s">
         <v>4</v>
       </c>
@@ -565,7 +572,7 @@
       <c r="F1" s="23"/>
       <c r="G1" s="23"/>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:7">
       <c r="B2" s="24" t="s">
         <v>5</v>
       </c>
@@ -575,7 +582,7 @@
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:7">
       <c r="B3" s="23"/>
       <c r="C3" s="23"/>
       <c r="D3" s="23"/>
@@ -583,7 +590,7 @@
       <c r="F3" s="23"/>
       <c r="G3" s="23"/>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:7">
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -591,7 +598,7 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" ht="20" customHeight="1">
       <c r="B5" s="25" t="s">
         <v>3</v>
       </c>
@@ -601,19 +608,21 @@
       <c r="F5" s="26"/>
       <c r="G5" s="27"/>
     </row>
-    <row r="6" spans="2:7" s="19" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:7" s="19" customFormat="1" ht="10">
       <c r="B6" s="19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:7">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="2:7" s="1" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="3"/>
+    <row r="8" spans="2:7" s="1" customFormat="1" ht="36.75" customHeight="1">
+      <c r="B8" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="C8" s="3" t="s">
         <v>0</v>
       </c>
@@ -624,7 +633,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:7">
       <c r="B10" s="7">
         <v>33263</v>
       </c>
@@ -638,7 +647,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:7">
       <c r="B11" s="7">
         <v>33284</v>
       </c>
@@ -652,7 +661,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:7">
       <c r="B12" s="7">
         <v>33312</v>
       </c>
@@ -666,7 +675,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:7">
       <c r="B13" s="7">
         <v>33354</v>
       </c>
@@ -680,7 +689,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:7">
       <c r="B14" s="7">
         <v>33382</v>
       </c>
@@ -694,7 +703,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:7">
       <c r="B15" s="7">
         <v>33403</v>
       </c>
@@ -708,7 +717,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:7">
       <c r="B16" s="7">
         <v>33473</v>
       </c>
@@ -722,7 +731,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:5">
       <c r="B17" s="7">
         <v>33508</v>
       </c>
@@ -736,7 +745,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:5">
       <c r="B18" s="7">
         <v>33529</v>
       </c>
@@ -750,7 +759,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:5">
       <c r="B19" s="7">
         <v>33550</v>
       </c>
@@ -764,7 +773,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:5">
       <c r="B20" s="7">
         <v>33585</v>
       </c>
@@ -778,7 +787,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:5">
       <c r="B21" s="7">
         <v>33634</v>
       </c>
@@ -792,7 +801,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:5">
       <c r="B22" s="7">
         <v>33655</v>
       </c>
@@ -806,7 +815,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:5">
       <c r="B23" s="7">
         <v>33683</v>
       </c>
@@ -820,7 +829,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:5">
       <c r="B24" s="7">
         <v>33704</v>
       </c>
@@ -834,7 +843,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:5">
       <c r="B25" s="7">
         <v>33739</v>
       </c>
@@ -848,7 +857,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:5">
       <c r="B26" s="7">
         <v>33774</v>
       </c>
@@ -862,7 +871,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:5">
       <c r="B27" s="7">
         <v>33795</v>
       </c>
@@ -876,7 +885,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:5">
       <c r="B28" s="7">
         <v>33865</v>
       </c>
@@ -890,7 +899,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:5">
       <c r="B29" s="7">
         <v>33893</v>
       </c>
@@ -904,7 +913,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:5">
       <c r="B30" s="7">
         <v>33921</v>
       </c>
@@ -918,7 +927,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:5">
       <c r="B31" s="7">
         <v>33949</v>
       </c>
@@ -932,7 +941,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:5">
       <c r="B32" s="7">
         <v>33991</v>
       </c>
@@ -946,7 +955,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:5">
       <c r="B33" s="7">
         <v>34019</v>
       </c>
@@ -960,7 +969,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:5">
       <c r="B34" s="7">
         <v>34047</v>
       </c>
@@ -974,7 +983,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:5">
       <c r="B35" s="7">
         <v>34082</v>
       </c>
@@ -988,7 +997,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:5">
       <c r="B36" s="7">
         <v>34103</v>
       </c>
@@ -1002,7 +1011,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:5">
       <c r="B37" s="7">
         <v>34138</v>
       </c>
@@ -1016,7 +1025,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:5">
       <c r="B38" s="7">
         <v>34159</v>
       </c>
@@ -1030,7 +1039,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:5">
       <c r="B39" s="7">
         <v>34236</v>
       </c>
@@ -1044,7 +1053,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:5">
       <c r="B40" s="7">
         <v>34257</v>
       </c>
@@ -1058,7 +1067,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:5">
       <c r="B41" s="7">
         <v>34285</v>
       </c>
@@ -1072,7 +1081,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:5">
       <c r="B42" s="7">
         <v>34313</v>
       </c>
@@ -1086,7 +1095,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:5">
       <c r="B43" s="7">
         <v>34355</v>
       </c>
@@ -1100,7 +1109,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:5">
       <c r="B44" s="7">
         <v>34390</v>
       </c>
@@ -1114,7 +1123,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:5">
       <c r="B45" s="7">
         <v>34418</v>
       </c>
@@ -1128,7 +1137,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:5">
       <c r="B46" s="7">
         <v>34446</v>
       </c>
@@ -1142,7 +1151,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:5">
       <c r="B47" s="7">
         <v>34474</v>
       </c>
@@ -1156,7 +1165,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:5">
       <c r="B48" s="7">
         <v>34509</v>
       </c>
@@ -1170,7 +1179,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:5">
       <c r="B49" s="7">
         <v>34572</v>
       </c>
@@ -1184,7 +1193,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:5">
       <c r="B50" s="7">
         <v>34600</v>
       </c>
@@ -1198,7 +1207,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:5">
       <c r="B51" s="7">
         <v>34635</v>
       </c>
@@ -1212,7 +1221,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:5">
       <c r="B52" s="7">
         <v>34663</v>
       </c>
@@ -1226,7 +1235,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:5">
       <c r="B53" s="7">
         <v>34684</v>
       </c>
@@ -1240,7 +1249,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:5">
       <c r="B54" s="7">
         <v>34726</v>
       </c>
@@ -1254,7 +1263,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:5">
       <c r="B55" s="7">
         <v>34754</v>
       </c>
@@ -1268,7 +1277,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:5">
       <c r="B56" s="7">
         <v>34782</v>
       </c>
@@ -1282,7 +1291,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:5">
       <c r="B57" s="7">
         <v>34817</v>
       </c>
@@ -1296,7 +1305,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:5">
       <c r="B58" s="7">
         <v>34838</v>
       </c>
@@ -1310,7 +1319,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:5">
       <c r="B59" s="7">
         <v>34873</v>
       </c>
@@ -1324,7 +1333,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:5">
       <c r="B60" s="7">
         <v>34894</v>
       </c>
@@ -1338,7 +1347,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:5">
       <c r="B61" s="7">
         <v>34957</v>
       </c>
@@ -1352,7 +1361,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:5">
       <c r="B62" s="7">
         <v>34985</v>
       </c>
@@ -1366,7 +1375,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:5">
       <c r="B63" s="7">
         <v>35020</v>
       </c>
@@ -1380,7 +1389,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:5">
       <c r="B64" s="7">
         <v>35048</v>
       </c>
@@ -1394,7 +1403,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:5">
       <c r="B65" s="7">
         <v>35083</v>
       </c>
@@ -1408,7 +1417,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:5">
       <c r="B66" s="7">
         <v>35111</v>
       </c>
@@ -1422,7 +1431,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:5">
       <c r="B67" s="7">
         <v>35139</v>
       </c>
@@ -1436,7 +1445,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:5">
       <c r="B68" s="7">
         <v>35174</v>
       </c>
@@ -1450,7 +1459,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:5">
       <c r="B69" s="7">
         <v>35209</v>
       </c>
@@ -1464,7 +1473,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:5">
       <c r="B70" s="7">
         <v>35237</v>
       </c>
@@ -1478,7 +1487,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:5">
       <c r="B71" s="7">
         <v>35300</v>
       </c>
@@ -1492,7 +1501,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:5">
       <c r="B72" s="7">
         <v>35328</v>
       </c>
@@ -1506,7 +1515,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:5">
       <c r="B73" s="7">
         <v>35356</v>
       </c>
@@ -1520,7 +1529,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:5">
       <c r="B74" s="7">
         <v>35384</v>
       </c>
@@ -1534,7 +1543,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:5">
       <c r="B75" s="7">
         <v>35412</v>
       </c>
@@ -1548,7 +1557,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:5">
       <c r="B76" s="7">
         <v>35447</v>
       </c>
@@ -1562,7 +1571,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:5">
       <c r="B77" s="7">
         <v>35482</v>
       </c>
@@ -1576,7 +1585,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:5">
       <c r="B78" s="7">
         <v>35510</v>
       </c>
@@ -1590,7 +1599,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:5">
       <c r="B79" s="7">
         <v>35538</v>
       </c>
@@ -1604,7 +1613,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:5">
       <c r="B80" s="7">
         <v>35566</v>
       </c>
@@ -1618,7 +1627,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:5">
       <c r="B81" s="7">
         <v>35601</v>
       </c>
@@ -1632,7 +1641,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:5">
       <c r="B82" s="7">
         <v>35671</v>
       </c>
@@ -1646,7 +1655,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:5">
       <c r="B83" s="7">
         <v>35699</v>
       </c>
@@ -1660,7 +1669,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:5">
       <c r="B84" s="7">
         <v>35720</v>
       </c>
@@ -1674,7 +1683,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:5">
       <c r="B85" s="7">
         <v>35748</v>
       </c>
@@ -1688,7 +1697,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:5">
       <c r="B86" s="7">
         <v>35776</v>
       </c>
@@ -1702,7 +1711,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:5">
       <c r="B87" s="7">
         <v>35811</v>
       </c>
@@ -1716,7 +1725,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:5">
       <c r="B88" s="7">
         <v>35839</v>
       </c>
@@ -1730,7 +1739,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:5">
       <c r="B89" s="7">
         <v>35867</v>
       </c>
@@ -1744,7 +1753,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:5">
       <c r="B90" s="7">
         <v>35902</v>
       </c>
@@ -1758,7 +1767,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:5">
       <c r="B91" s="7">
         <v>35930</v>
       </c>
@@ -1772,7 +1781,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:5">
       <c r="B92" s="7">
         <v>35965</v>
       </c>
@@ -1786,7 +1795,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:5">
       <c r="B93" s="7">
         <v>35993</v>
       </c>
@@ -1800,7 +1809,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:5">
       <c r="B94" s="7">
         <v>36021</v>
       </c>
@@ -1814,7 +1823,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:5">
       <c r="B95" s="7">
         <v>36042</v>
       </c>
@@ -1828,7 +1837,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:5">
       <c r="B96" s="7">
         <v>36049</v>
       </c>
@@ -1842,7 +1851,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:5">
       <c r="B97" s="7">
         <v>36056</v>
       </c>
@@ -1856,7 +1865,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:5">
       <c r="B98" s="7">
         <v>36084</v>
       </c>
@@ -1870,7 +1879,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:5">
       <c r="B99" s="7">
         <v>36112</v>
       </c>
@@ -1884,7 +1893,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:5">
       <c r="B100" s="7">
         <v>36140</v>
       </c>
@@ -1898,7 +1907,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:5">
       <c r="B101" s="7">
         <v>36182</v>
       </c>
@@ -1912,7 +1921,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="102" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:5">
       <c r="B102" s="7">
         <v>36217</v>
       </c>
@@ -1926,7 +1935,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="103" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:5">
       <c r="B103" s="7">
         <v>36238</v>
       </c>
@@ -1940,7 +1949,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="104" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:5">
       <c r="B104" s="7">
         <v>36266</v>
       </c>
@@ -1954,7 +1963,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="105" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:5">
       <c r="B105" s="7">
         <v>36301</v>
       </c>
@@ -1968,7 +1977,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="106" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:5">
       <c r="B106" s="7">
         <v>36336</v>
       </c>
@@ -1982,7 +1991,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="107" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:5">
       <c r="B107" s="7">
         <v>36364</v>
       </c>
@@ -1996,7 +2005,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="108" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:5">
       <c r="B108" s="7">
         <v>36392</v>
       </c>
@@ -2010,7 +2019,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="109" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:5">
       <c r="B109" s="7">
         <v>36427</v>
       </c>
@@ -2024,7 +2033,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="110" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:5">
       <c r="B110" s="7">
         <v>36448</v>
       </c>
@@ -2038,7 +2047,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="111" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:5">
       <c r="B111" s="7">
         <v>36476</v>
       </c>
@@ -2052,7 +2061,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="112" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:5">
       <c r="B112" s="7">
         <v>36504</v>
       </c>
@@ -2066,7 +2075,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="113" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:5">
       <c r="B113" s="7">
         <v>36546</v>
       </c>
@@ -2080,7 +2089,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="114" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:5">
       <c r="B114" s="7">
         <v>36574</v>
       </c>
@@ -2094,7 +2103,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="115" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:5">
       <c r="B115" s="7">
         <v>36602</v>
       </c>
@@ -2108,7 +2117,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="116" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:5">
       <c r="B116" s="7">
         <v>36630</v>
       </c>
@@ -2122,7 +2131,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="117" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:5">
       <c r="B117" s="7">
         <v>36665</v>
       </c>
@@ -2136,7 +2145,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="118" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:5">
       <c r="B118" s="7">
         <v>36700</v>
       </c>
@@ -2150,7 +2159,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="119" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:5">
       <c r="B119" s="7">
         <v>36735</v>
       </c>
@@ -2164,7 +2173,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="120" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:5">
       <c r="B120" s="7">
         <v>36763</v>
       </c>
@@ -2178,7 +2187,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="121" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:5">
       <c r="B121" s="7">
         <v>36791</v>
       </c>
@@ -2192,7 +2201,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="122" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:5">
       <c r="B122" s="7">
         <v>36819</v>
       </c>
@@ -2206,7 +2215,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="123" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:5">
       <c r="B123" s="7">
         <v>36847</v>
       </c>
@@ -2220,7 +2229,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="124" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:5">
       <c r="B124" s="7">
         <v>36875</v>
       </c>
@@ -2234,7 +2243,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="125" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:5">
       <c r="B125" s="7">
         <v>36910</v>
       </c>
@@ -2248,7 +2257,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="126" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:5">
       <c r="B126" s="7">
         <v>36938</v>
       </c>
@@ -2262,7 +2271,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="127" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:5">
       <c r="B127" s="7">
         <v>36966</v>
       </c>
@@ -2276,7 +2285,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="128" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:5">
       <c r="B128" s="7">
         <v>36987</v>
       </c>
@@ -2290,7 +2299,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="129" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:5">
       <c r="B129" s="7">
         <v>37029</v>
       </c>
@@ -2304,7 +2313,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="130" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:5">
       <c r="B130" s="7">
         <v>37064</v>
       </c>
@@ -2318,7 +2327,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="131" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:5">
       <c r="B131" s="7">
         <v>37092</v>
       </c>
@@ -2332,7 +2341,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="132" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:5">
       <c r="B132" s="7">
         <v>37127</v>
       </c>
@@ -2346,7 +2355,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="133" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:5">
       <c r="B133" s="7">
         <v>37148</v>
       </c>
@@ -2360,7 +2369,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="134" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:5">
       <c r="B134" s="7">
         <v>37176</v>
       </c>
@@ -2374,7 +2383,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="135" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:5">
       <c r="B135" s="7">
         <v>37211</v>
       </c>
@@ -2388,7 +2397,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="136" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:5">
       <c r="B136" s="7">
         <v>37239</v>
       </c>
@@ -2402,7 +2411,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="137" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:5">
       <c r="B137" s="7">
         <v>37267</v>
       </c>
@@ -2416,7 +2425,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="138" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:5">
       <c r="B138" s="7">
         <v>37274</v>
       </c>
@@ -2430,7 +2439,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="139" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:5">
       <c r="B139" s="7">
         <v>37295</v>
       </c>
@@ -2444,7 +2453,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="140" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:5">
       <c r="B140" s="7">
         <v>37309</v>
       </c>
@@ -2458,7 +2467,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="141" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:5">
       <c r="B141" s="7">
         <v>37323</v>
       </c>
@@ -2472,7 +2481,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="142" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:5">
       <c r="B142" s="7">
         <v>37337</v>
       </c>
@@ -2486,7 +2495,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="143" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:5">
       <c r="B143" s="7">
         <v>37358</v>
       </c>
@@ -2500,7 +2509,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="144" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:5">
       <c r="B144" s="7">
         <v>37372</v>
       </c>
@@ -2514,7 +2523,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="145" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:5">
       <c r="B145" s="7">
         <v>37386</v>
       </c>
@@ -2528,7 +2537,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="146" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:5">
       <c r="B146" s="7">
         <v>37407</v>
       </c>
@@ -2542,7 +2551,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="147" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:5">
       <c r="B147" s="7">
         <v>37421</v>
       </c>
@@ -2556,7 +2565,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="148" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:5">
       <c r="B148" s="7">
         <v>37435</v>
       </c>
@@ -2570,7 +2579,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="149" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:5">
       <c r="B149" s="7">
         <v>37449</v>
       </c>
@@ -2584,7 +2593,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="150" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:5">
       <c r="B150" s="7">
         <v>37463</v>
       </c>
@@ -2598,7 +2607,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="151" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:5">
       <c r="B151" s="7">
         <v>37477</v>
       </c>
@@ -2612,7 +2621,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="152" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:5">
       <c r="B152" s="7">
         <v>37484</v>
       </c>
@@ -2626,7 +2635,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="153" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:5">
       <c r="B153" s="7">
         <v>37491</v>
       </c>
@@ -2640,7 +2649,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="154" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:5">
       <c r="B154" s="7">
         <v>37498</v>
       </c>
@@ -2654,7 +2663,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="155" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:5">
       <c r="B155" s="7">
         <v>37505</v>
       </c>
@@ -2668,7 +2677,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="156" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:5">
       <c r="B156" s="7">
         <v>37512</v>
       </c>
@@ -2682,7 +2691,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="157" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:5">
       <c r="B157" s="7">
         <v>37547</v>
       </c>
@@ -2696,7 +2705,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="158" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:5">
       <c r="B158" s="7">
         <v>37575</v>
       </c>
@@ -2710,7 +2719,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="159" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:5">
       <c r="B159" s="7">
         <v>37603</v>
       </c>
@@ -2724,7 +2733,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="160" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:5">
       <c r="B160" s="7">
         <v>37645</v>
       </c>
@@ -2738,7 +2747,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="161" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:5">
       <c r="B161" s="7">
         <v>37659</v>
       </c>
@@ -2752,7 +2761,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="162" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:5">
       <c r="B162" s="7">
         <v>37673</v>
       </c>
@@ -2766,7 +2775,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="163" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:5">
       <c r="B163" s="7">
         <v>37694</v>
       </c>
@@ -2780,7 +2789,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="164" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:5">
       <c r="B164" s="7">
         <v>37708</v>
       </c>
@@ -2794,7 +2803,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="165" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:5">
       <c r="B165" s="7">
         <v>37722</v>
       </c>
@@ -2808,7 +2817,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="166" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:5">
       <c r="B166" s="7">
         <v>37772</v>
       </c>
@@ -2822,7 +2831,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="167" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:5">
       <c r="B167" s="7">
         <v>37757</v>
       </c>
@@ -2836,7 +2845,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="168" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:5">
       <c r="B168" s="7">
         <v>37778</v>
       </c>
@@ -2850,7 +2859,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="169" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:5">
       <c r="B169" s="7">
         <v>37799</v>
       </c>
@@ -2864,7 +2873,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="170" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:5">
       <c r="B170" s="7">
         <v>37820</v>
       </c>
@@ -2878,7 +2887,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="171" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:5">
       <c r="B171" s="7">
         <v>37855</v>
       </c>
@@ -2892,7 +2901,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="172" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:5">
       <c r="B172" s="7">
         <v>37876</v>
       </c>
@@ -2906,7 +2915,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="173" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:5">
       <c r="B173" s="7">
         <v>37904</v>
       </c>
@@ -2920,7 +2929,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="174" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:5">
       <c r="B174" s="7">
         <v>37918</v>
       </c>
@@ -2934,7 +2943,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="175" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="175" spans="2:5">
       <c r="B175" s="7">
         <v>37939</v>
       </c>
@@ -2948,7 +2957,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="176" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="176" spans="2:5">
       <c r="B176" s="7">
         <v>37953</v>
       </c>
@@ -2962,7 +2971,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="177" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="177" spans="2:5">
       <c r="B177" s="7">
         <v>37967</v>
       </c>
@@ -2976,7 +2985,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="178" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="178" spans="2:5">
       <c r="B178" s="7">
         <v>38002</v>
       </c>
@@ -2990,7 +2999,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="179" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="179" spans="2:5">
       <c r="B179" s="7">
         <v>38030</v>
       </c>
@@ -3004,7 +3013,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="180" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="180" spans="2:5">
       <c r="B180" s="7">
         <v>38051</v>
       </c>
@@ -3018,7 +3027,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="181" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="181" spans="2:5">
       <c r="B181" s="7">
         <v>38065</v>
       </c>
@@ -3032,7 +3041,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="182" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="182" spans="2:5">
       <c r="B182" s="7">
         <v>38079</v>
       </c>
@@ -3046,7 +3055,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="183" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="183" spans="2:5">
       <c r="B183" s="7">
         <v>38100</v>
       </c>
@@ -3060,7 +3069,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="184" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="184" spans="2:5">
       <c r="B184" s="7">
         <v>38121</v>
       </c>
@@ -3074,7 +3083,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="185" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="185" spans="2:5">
       <c r="B185" s="7">
         <v>38135</v>
       </c>
@@ -3088,7 +3097,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="186" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="186" spans="2:5">
       <c r="B186" s="7">
         <v>38163</v>
       </c>
@@ -3102,7 +3111,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="187" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="187" spans="2:5">
       <c r="B187" s="7">
         <v>38177</v>
       </c>
@@ -3116,7 +3125,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="188" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="188" spans="2:5">
       <c r="B188" s="7">
         <v>38191</v>
       </c>
@@ -3130,7 +3139,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="189" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="189" spans="2:5">
       <c r="B189" s="7">
         <v>38226</v>
       </c>
@@ -3144,7 +3153,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="190" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="190" spans="2:5">
       <c r="B190" s="7">
         <v>38254</v>
       </c>
@@ -3158,7 +3167,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="191" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="191" spans="2:5">
       <c r="B191" s="7">
         <v>38275</v>
       </c>
@@ -3172,7 +3181,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="192" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="192" spans="2:5">
       <c r="B192" s="7">
         <v>38289</v>
       </c>
@@ -3186,7 +3195,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="193" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="193" spans="2:5">
       <c r="B193" s="7">
         <v>38303</v>
       </c>
@@ -3200,7 +3209,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="194" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="194" spans="2:5">
       <c r="B194" s="7">
         <v>38317</v>
       </c>
@@ -3214,7 +3223,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="195" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="195" spans="2:5">
       <c r="B195" s="7">
         <v>38331</v>
       </c>
@@ -3228,7 +3237,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="196" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="196" spans="2:5">
       <c r="B196" s="7">
         <v>38366</v>
       </c>
@@ -3242,7 +3251,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="197" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="197" spans="2:5">
       <c r="B197" s="7">
         <v>38380</v>
       </c>
@@ -3256,7 +3265,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="198" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="198" spans="2:5">
       <c r="B198" s="7">
         <v>38408</v>
       </c>
@@ -3270,7 +3279,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="199" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="199" spans="2:5">
       <c r="B199" s="7">
         <v>38429</v>
       </c>
@@ -3284,7 +3293,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="200" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="200" spans="2:5">
       <c r="B200" s="7">
         <v>38457</v>
       </c>
@@ -3298,7 +3307,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="201" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="201" spans="2:5">
       <c r="B201" s="7">
         <v>38471</v>
       </c>
@@ -3312,7 +3321,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="202" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="202" spans="2:5">
       <c r="B202" s="7">
         <v>38499</v>
       </c>
@@ -3326,7 +3335,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="203" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="203" spans="2:5">
       <c r="B203" s="7">
         <v>38513</v>
       </c>
@@ -3340,7 +3349,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="204" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="204" spans="2:5">
       <c r="B204" s="7">
         <v>38527</v>
       </c>
@@ -3354,7 +3363,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="205" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="205" spans="2:5">
       <c r="B205" s="7">
         <v>38541</v>
       </c>
@@ -3368,7 +3377,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="206" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="206" spans="2:5">
       <c r="B206" s="7">
         <v>38555</v>
       </c>
@@ -3382,7 +3391,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="207" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="207" spans="2:5">
       <c r="B207" s="7">
         <v>38569</v>
       </c>
@@ -3396,7 +3405,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="208" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="208" spans="2:5">
       <c r="B208" s="7">
         <v>38576</v>
       </c>
@@ -3410,7 +3419,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="209" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="209" spans="2:5">
       <c r="B209" s="7">
         <v>38583</v>
       </c>
@@ -3424,7 +3433,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="210" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="210" spans="2:5">
       <c r="B210" s="7">
         <v>38590</v>
       </c>
@@ -3438,7 +3447,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="211" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="211" spans="2:5">
       <c r="B211" s="7">
         <v>38597</v>
       </c>
@@ -3452,7 +3461,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="212" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="212" spans="2:5">
       <c r="B212" s="7">
         <v>38604</v>
       </c>
@@ -3466,7 +3475,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="213" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="213" spans="2:5">
       <c r="B213" s="7">
         <v>38618</v>
       </c>
@@ -3480,7 +3489,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="214" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="214" spans="2:5">
       <c r="B214" s="7">
         <v>38632</v>
       </c>
@@ -3494,7 +3503,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="215" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="215" spans="2:5">
       <c r="B215" s="7">
         <v>38639</v>
       </c>
@@ -3508,7 +3517,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="216" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="216" spans="2:5">
       <c r="B216" s="7">
         <v>38653</v>
       </c>
@@ -3522,7 +3531,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="217" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="217" spans="2:5">
       <c r="B217" s="7">
         <v>38667</v>
       </c>
@@ -3536,7 +3545,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="218" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="218" spans="2:5">
       <c r="B218" s="7">
         <v>38681</v>
       </c>
@@ -3550,7 +3559,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="219" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="219" spans="2:5">
       <c r="B219" s="7">
         <v>38695</v>
       </c>
@@ -3564,7 +3573,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="220" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="220" spans="2:5">
       <c r="B220" s="7">
         <v>38730</v>
       </c>
@@ -3578,7 +3587,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="221" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="221" spans="2:5">
       <c r="B221" s="7">
         <v>38744</v>
       </c>
@@ -3592,7 +3601,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="222" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="222" spans="2:5">
       <c r="B222" s="7">
         <v>38765</v>
       </c>
@@ -3606,7 +3615,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="223" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="223" spans="2:5">
       <c r="B223" s="7">
         <v>38786</v>
       </c>
@@ -3620,7 +3629,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="224" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="224" spans="2:5">
       <c r="B224" s="7">
         <v>38814</v>
       </c>
@@ -3634,7 +3643,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="225" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="225" spans="2:5">
       <c r="B225" s="7">
         <v>38835</v>
       </c>
@@ -3648,7 +3657,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="226" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="226" spans="2:5">
       <c r="B226" s="7">
         <v>38856</v>
       </c>
@@ -3662,7 +3671,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="227" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="227" spans="2:5">
       <c r="B227" s="7">
         <v>38884</v>
       </c>
@@ -3676,7 +3685,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="228" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="228" spans="2:5">
       <c r="B228" s="7">
         <v>38912</v>
       </c>
@@ -3690,7 +3699,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="229" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="229" spans="2:5">
       <c r="B229" s="7">
         <v>38947</v>
       </c>
@@ -3704,7 +3713,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="230" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="230" spans="2:5">
       <c r="B230" s="7">
         <v>38961</v>
       </c>
@@ -3718,7 +3727,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="231" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="231" spans="2:5">
       <c r="B231" s="7">
         <v>38989</v>
       </c>
@@ -3732,7 +3741,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="232" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="232" spans="2:5">
       <c r="B232" s="7">
         <v>39003</v>
       </c>
@@ -3746,7 +3755,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="233" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="233" spans="2:5">
       <c r="B233" s="7">
         <v>39017</v>
       </c>
@@ -3760,7 +3769,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="234" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="234" spans="2:5">
       <c r="B234" s="7">
         <v>39031</v>
       </c>
@@ -3774,7 +3783,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="235" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="235" spans="2:5">
       <c r="B235" s="7">
         <v>39045</v>
       </c>
@@ -3788,7 +3797,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="236" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="236" spans="2:5">
       <c r="B236" s="7">
         <v>39066</v>
       </c>
@@ -3802,7 +3811,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="237" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="237" spans="2:5">
       <c r="B237" s="7">
         <v>39094</v>
       </c>
@@ -3816,7 +3825,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="238" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="238" spans="2:5">
       <c r="B238" s="7">
         <v>39122</v>
       </c>
@@ -3830,7 +3839,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="239" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="239" spans="2:5">
       <c r="B239" s="7">
         <v>39143</v>
       </c>
@@ -3844,7 +3853,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="240" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="240" spans="2:5">
       <c r="B240" s="7">
         <v>39157</v>
       </c>
@@ -3858,7 +3867,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="241" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="241" spans="2:5">
       <c r="B241" s="7">
         <v>39171</v>
       </c>
@@ -3872,7 +3881,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="242" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="242" spans="2:5">
       <c r="B242" s="7">
         <v>39192</v>
       </c>
@@ -3886,7 +3895,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="243" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="243" spans="2:5">
       <c r="B243" s="7">
         <v>39220</v>
       </c>
@@ -3900,7 +3909,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="244" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="244" spans="2:5">
       <c r="B244" s="7">
         <v>39234</v>
       </c>
@@ -3914,7 +3923,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="245" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="245" spans="2:5">
       <c r="B245" s="7">
         <v>39255</v>
       </c>
@@ -3928,7 +3937,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="246" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="246" spans="2:5">
       <c r="B246" s="7">
         <v>39283</v>
       </c>
@@ -3942,7 +3951,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="247" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="247" spans="2:5">
       <c r="B247" s="7">
         <v>39311</v>
       </c>
@@ -3956,7 +3965,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="248" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="248" spans="2:5">
       <c r="B248" s="7">
         <v>39339</v>
       </c>
@@ -3970,7 +3979,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="249" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="249" spans="2:5">
       <c r="B249" s="7">
         <v>39360</v>
       </c>
@@ -3984,7 +3993,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="250" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="250" spans="2:5">
       <c r="B250" s="7">
         <v>39374</v>
       </c>
@@ -3998,7 +4007,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="251" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="251" spans="2:5">
       <c r="B251" s="7">
         <v>39395</v>
       </c>
@@ -4012,7 +4021,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="252" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="252" spans="2:5">
       <c r="B252" s="7">
         <v>39409</v>
       </c>
@@ -4026,7 +4035,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="253" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="253" spans="2:5">
       <c r="B253" s="7">
         <v>39430</v>
       </c>
@@ -4040,7 +4049,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="254" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="254" spans="2:5">
       <c r="B254" s="7">
         <v>39458</v>
       </c>
@@ -4054,7 +4063,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="255" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="255" spans="2:5">
       <c r="B255" s="7">
         <v>39486</v>
       </c>
@@ -4068,7 +4077,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="256" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="256" spans="2:5">
       <c r="B256" s="7">
         <v>39507</v>
       </c>
@@ -4082,7 +4091,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="257" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="257" spans="2:5">
       <c r="B257" s="7">
         <v>39521</v>
       </c>
@@ -4096,7 +4105,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="258" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="258" spans="2:5">
       <c r="B258" s="7">
         <v>39542</v>
       </c>
@@ -4110,7 +4119,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="259" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="259" spans="2:5">
       <c r="B259" s="7">
         <v>39556</v>
       </c>
@@ -4124,7 +4133,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="260" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="260" spans="2:5">
       <c r="B260" s="7">
         <v>39577</v>
       </c>
@@ -4138,7 +4147,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="261" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="261" spans="2:5">
       <c r="B261" s="7">
         <v>39598</v>
       </c>
@@ -4152,7 +4161,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="262" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="262" spans="2:5">
       <c r="B262" s="7">
         <v>39612</v>
       </c>
@@ -4166,7 +4175,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="263" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="263" spans="2:5">
       <c r="B263" s="7">
         <v>39640</v>
       </c>
@@ -4180,7 +4189,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="264" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="264" spans="2:5">
       <c r="B264" s="7">
         <v>39675</v>
       </c>
@@ -4194,7 +4203,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="265" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="265" spans="2:5">
       <c r="B265" s="7">
         <v>39703</v>
       </c>
@@ -4208,7 +4217,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="266" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="266" spans="2:5">
       <c r="B266" s="7">
         <v>39731</v>
       </c>
@@ -4222,7 +4231,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="267" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="267" spans="2:5">
       <c r="B267" s="7">
         <v>39745</v>
       </c>
@@ -4236,7 +4245,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="268" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="268" spans="2:5">
       <c r="B268" s="7">
         <v>39759</v>
       </c>
@@ -4250,7 +4259,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="269" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="269" spans="2:5">
       <c r="B269" s="7">
         <v>39773</v>
       </c>
@@ -4264,7 +4273,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="270" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="270" spans="2:5">
       <c r="B270" s="7">
         <v>39794</v>
       </c>
@@ -4278,7 +4287,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="271" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="271" spans="2:5">
       <c r="B271" s="7">
         <v>39853</v>
       </c>
@@ -4292,7 +4301,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="272" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="272" spans="2:5">
       <c r="B272" s="7">
         <v>39843</v>
       </c>
@@ -4306,7 +4315,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="273" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="273" spans="2:5">
       <c r="B273" s="7">
         <v>39857</v>
       </c>
@@ -4320,7 +4329,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="274" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="274" spans="2:5">
       <c r="B274" s="7">
         <v>39878</v>
       </c>
@@ -4334,7 +4343,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="275" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="275" spans="2:5">
       <c r="B275" s="7">
         <v>39899</v>
       </c>
@@ -4348,7 +4357,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="276" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="276" spans="2:5">
       <c r="B276" s="7">
         <v>39927</v>
       </c>
@@ -4362,7 +4371,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="277" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="277" spans="2:5">
       <c r="B277" s="7">
         <v>39941</v>
       </c>
@@ -4376,7 +4385,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="278" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="278" spans="2:5">
       <c r="B278" s="7">
         <v>39962</v>
       </c>
@@ -4390,7 +4399,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="279" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="279" spans="2:5">
       <c r="B279" s="7">
         <v>39976</v>
       </c>
@@ -4404,7 +4413,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="280" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="280" spans="2:5">
       <c r="B280" s="7">
         <v>39997</v>
       </c>
@@ -4418,7 +4427,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="281" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="281" spans="2:5">
       <c r="B281" s="7">
         <v>40018</v>
       </c>
@@ -4432,7 +4441,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="282" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="282" spans="2:5">
       <c r="B282" s="7">
         <v>40032</v>
       </c>
@@ -4446,7 +4455,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="283" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="283" spans="2:5">
       <c r="B283" s="7">
         <v>40046</v>
       </c>
@@ -4460,7 +4469,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="284" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="284" spans="2:5">
       <c r="B284" s="7">
         <v>40053</v>
       </c>
@@ -4474,7 +4483,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="285" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="285" spans="2:5">
       <c r="B285" s="7">
         <v>40060</v>
       </c>
@@ -4488,7 +4497,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="286" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="286" spans="2:5">
       <c r="B286" s="7">
         <v>40067</v>
       </c>
@@ -4502,7 +4511,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="287" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="287" spans="2:5">
       <c r="B287" s="7">
         <v>40074</v>
       </c>
@@ -4516,7 +4525,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="288" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="288" spans="2:5">
       <c r="B288" s="7">
         <v>40088</v>
       </c>
@@ -4530,7 +4539,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="289" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="289" spans="2:5">
       <c r="B289" s="7">
         <v>40102</v>
       </c>
@@ -4544,7 +4553,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="290" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="290" spans="2:5">
       <c r="B290" s="7">
         <v>40116</v>
       </c>
@@ -4558,7 +4567,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="291" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="291" spans="2:5">
       <c r="B291" s="7">
         <v>40144</v>
       </c>
@@ -4572,7 +4581,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="292" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="292" spans="2:5">
       <c r="B292" s="7">
         <v>40158</v>
       </c>
@@ -4586,7 +4595,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="293" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="293" spans="2:5">
       <c r="B293" s="7">
         <v>40193</v>
       </c>
@@ -4600,7 +4609,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="294" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="294" spans="2:5">
       <c r="B294" s="7">
         <v>40207</v>
       </c>
@@ -4614,7 +4623,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="295" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="295" spans="2:5">
       <c r="B295" s="7">
         <v>40235</v>
       </c>
@@ -4628,7 +4637,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="296" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="296" spans="2:5">
       <c r="B296" s="7">
         <v>40249</v>
       </c>
@@ -4642,7 +4651,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="297" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="297" spans="2:5">
       <c r="B297" s="7">
         <v>40263</v>
       </c>
@@ -4656,7 +4665,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="298" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="298" spans="2:5">
       <c r="B298" s="7">
         <v>40291</v>
       </c>
@@ -4670,7 +4679,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="299" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="299" spans="2:5">
       <c r="B299" s="7">
         <v>40319</v>
       </c>
@@ -4684,7 +4693,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="300" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="300" spans="2:5">
       <c r="B300" s="7">
         <v>40333</v>
       </c>
@@ -4698,7 +4707,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="301" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="301" spans="2:5">
       <c r="B301" s="7">
         <v>40347</v>
       </c>
@@ -4712,7 +4721,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="302" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="302" spans="2:5">
       <c r="B302" s="7">
         <v>40375</v>
       </c>
@@ -4726,7 +4735,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="303" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="303" spans="2:5">
       <c r="B303" s="7">
         <v>40417</v>
       </c>
@@ -4740,7 +4749,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="304" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="304" spans="2:5">
       <c r="B304" s="7">
         <v>40431</v>
       </c>
@@ -4754,7 +4763,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="305" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="305" spans="2:5">
       <c r="B305" s="7">
         <v>40445</v>
       </c>
@@ -4768,7 +4777,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="306" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="306" spans="2:5">
       <c r="B306" s="7">
         <v>40452</v>
       </c>
@@ -4782,7 +4791,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="307" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="307" spans="2:5">
       <c r="B307" s="7">
         <v>40473</v>
       </c>
@@ -4796,7 +4805,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="308" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="308" spans="2:5">
       <c r="B308" s="7">
         <v>40494</v>
       </c>
@@ -4810,7 +4819,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="309" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="309" spans="2:5">
       <c r="B309" s="7">
         <v>40515</v>
       </c>
@@ -4824,7 +4833,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="310" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="310" spans="2:5">
       <c r="B310" s="7">
         <v>40529</v>
       </c>
@@ -4838,7 +4847,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="311" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="311" spans="2:5">
       <c r="B311" s="7">
         <v>40557</v>
       </c>
@@ -4852,7 +4861,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="312" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="312" spans="2:5">
       <c r="B312" s="7">
         <v>40571</v>
       </c>
@@ -4866,7 +4875,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="313" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="313" spans="2:5">
       <c r="B313" s="7">
         <v>40585</v>
       </c>
@@ -4880,7 +4889,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="314" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="314" spans="2:5">
       <c r="B314" s="7">
         <v>40599</v>
       </c>
@@ -4894,7 +4903,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="315" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="315" spans="2:5">
       <c r="B315" s="7">
         <v>40634</v>
       </c>
@@ -4908,7 +4917,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="316" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="316" spans="2:5">
       <c r="B316" s="7">
         <v>40648</v>
       </c>
@@ -4922,7 +4931,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="317" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="317" spans="2:5">
       <c r="B317" s="7">
         <v>40669</v>
       </c>
@@ -4936,7 +4945,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="318" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="318" spans="2:5">
       <c r="B318" s="7">
         <v>40690</v>
       </c>
@@ -4950,7 +4959,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="319" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="319" spans="2:5">
       <c r="B319" s="7">
         <v>40704</v>
       </c>
@@ -4964,7 +4973,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="320" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="320" spans="2:5">
       <c r="B320" s="7">
         <v>40739</v>
       </c>
@@ -4978,7 +4987,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="321" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="321" spans="2:6">
       <c r="B321" s="7">
         <v>40767</v>
       </c>
@@ -4992,7 +5001,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="322" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="322" spans="2:6">
       <c r="B322" s="7">
         <v>40795</v>
       </c>
@@ -5006,7 +5015,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="323" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="323" spans="2:6">
       <c r="B323" s="7">
         <v>40809</v>
       </c>
@@ -5020,7 +5029,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="324" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="324" spans="2:6">
       <c r="B324" s="7">
         <v>40830</v>
       </c>
@@ -5034,7 +5043,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="325" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="325" spans="2:6">
       <c r="B325" s="7">
         <v>40844</v>
       </c>
@@ -5048,7 +5057,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="326" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="326" spans="2:6">
       <c r="B326" s="7">
         <v>40858</v>
       </c>
@@ -5062,7 +5071,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="327" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="327" spans="2:6">
       <c r="B327" s="7">
         <v>40872</v>
       </c>
@@ -5076,7 +5085,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="328" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="328" spans="2:6">
       <c r="B328" s="7">
         <v>40893</v>
       </c>
@@ -5090,7 +5099,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="329" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="329" spans="2:6">
       <c r="B329" s="7">
         <v>40921</v>
       </c>
@@ -5104,7 +5113,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="330" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="330" spans="2:6">
       <c r="B330" s="7">
         <v>40935</v>
       </c>
@@ -5118,7 +5127,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="331" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="331" spans="2:6">
       <c r="B331" s="7">
         <v>40949</v>
       </c>
@@ -5132,7 +5141,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="332" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="332" spans="2:6">
       <c r="B332" s="7">
         <v>40977</v>
       </c>
@@ -5146,7 +5155,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="333" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="333" spans="2:6">
       <c r="B333" s="7">
         <v>40998</v>
       </c>
@@ -5160,7 +5169,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="334" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="334" spans="2:6">
       <c r="B334" s="7">
         <v>41026</v>
       </c>
@@ -5177,7 +5186,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="335" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="335" spans="2:6">
       <c r="B335" s="7">
         <v>41045</v>
       </c>
@@ -5191,7 +5200,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="336" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="336" spans="2:6">
       <c r="B336" s="7">
         <v>41054</v>
       </c>
@@ -5205,7 +5214,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="337" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="337" spans="2:5">
       <c r="B337" s="7">
         <v>41075</v>
       </c>
@@ -5219,7 +5228,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="338" spans="2:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="2:5" s="6" customFormat="1">
       <c r="B338" s="7">
         <v>41103</v>
       </c>
@@ -5233,7 +5242,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="339" spans="2:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="2:5" s="6" customFormat="1">
       <c r="B339" s="7">
         <v>41145</v>
       </c>
@@ -5247,7 +5256,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="340" spans="2:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="2:5" s="6" customFormat="1">
       <c r="B340" s="7">
         <v>41166</v>
       </c>
@@ -5261,7 +5270,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="341" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="341" spans="2:5">
       <c r="B341" s="9">
         <v>41180</v>
       </c>
@@ -5275,7 +5284,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="342" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="342" spans="2:5">
       <c r="B342" s="9">
         <v>41193</v>
       </c>
@@ -5289,7 +5298,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="343" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="343" spans="2:5">
       <c r="B343" s="9">
         <v>41208</v>
       </c>
@@ -5303,7 +5312,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="344" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="344" spans="2:5">
       <c r="B344" s="9">
         <v>41229</v>
       </c>
@@ -5317,7 +5326,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="345" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="345" spans="2:5">
       <c r="B345" s="11">
         <v>41243</v>
       </c>
@@ -5331,7 +5340,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="346" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="346" spans="2:5">
       <c r="B346" s="11">
         <v>41257</v>
       </c>
@@ -5345,7 +5354,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="347" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="347" spans="2:5">
       <c r="B347" s="11">
         <v>41285</v>
       </c>
@@ -5359,7 +5368,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="348" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="348" spans="2:5">
       <c r="B348" s="11">
         <v>41299</v>
       </c>
@@ -5373,7 +5382,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="349" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="349" spans="2:5">
       <c r="B349" s="11">
         <v>41327</v>
       </c>
@@ -5387,7 +5396,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="350" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="350" spans="2:5">
       <c r="B350" s="11">
         <v>41341</v>
       </c>
@@ -5401,7 +5410,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="351" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="351" spans="2:5">
       <c r="B351" s="11">
         <v>41355</v>
       </c>
@@ -5415,7 +5424,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="352" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="352" spans="2:5">
       <c r="B352" s="11">
         <v>41376</v>
       </c>
@@ -5429,7 +5438,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="353" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="353" spans="2:5">
       <c r="B353" s="11">
         <v>41390</v>
       </c>
@@ -5443,7 +5452,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="354" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="354" spans="2:5">
       <c r="B354" s="11">
         <v>41411</v>
       </c>
@@ -5457,7 +5466,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="355" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="355" spans="2:5">
       <c r="B355" s="11">
         <v>41432</v>
       </c>
@@ -5471,7 +5480,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="356" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="356" spans="2:5">
       <c r="B356" s="11">
         <v>41453</v>
       </c>
@@ -5485,7 +5494,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="357" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="357" spans="2:5">
       <c r="B357" s="11">
         <v>41467</v>
       </c>
@@ -5499,7 +5508,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="358" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="358" spans="2:5">
       <c r="B358" s="11">
         <v>41488</v>
       </c>
@@ -5513,7 +5522,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="359" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="359" spans="2:5">
       <c r="B359" s="11">
         <v>41502</v>
       </c>
@@ -5527,7 +5536,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="360" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="360" spans="2:5">
       <c r="B360" s="11">
         <v>41509</v>
       </c>
@@ -5541,7 +5550,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="361" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="361" spans="2:5">
       <c r="B361" s="11">
         <v>41515</v>
       </c>
@@ -5555,7 +5564,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="362" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="362" spans="2:5">
       <c r="B362" s="11">
         <v>41522</v>
       </c>
@@ -5569,7 +5578,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="363" spans="2:5" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="2:5" s="14" customFormat="1">
       <c r="B363" s="7">
         <v>41530</v>
       </c>
@@ -5583,7 +5592,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="364" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="364" spans="2:5">
       <c r="B364" s="11">
         <v>41544</v>
       </c>
@@ -5597,7 +5606,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="365" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="365" spans="2:5">
       <c r="B365" s="11">
         <v>41565</v>
       </c>
@@ -5611,7 +5620,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="366" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="366" spans="2:5">
       <c r="B366" s="11">
         <v>41586</v>
       </c>
@@ -5625,7 +5634,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="367" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="367" spans="2:5">
       <c r="B367" s="11">
         <v>41607</v>
       </c>
@@ -5639,7 +5648,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="368" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="368" spans="2:5">
       <c r="B368" s="11">
         <v>41621</v>
       </c>
@@ -5653,7 +5662,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="369" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="369" spans="2:5">
       <c r="B369" s="15">
         <v>41656</v>
       </c>
@@ -5667,7 +5676,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="370" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="370" spans="2:5">
       <c r="B370" s="18" t="s">
         <v>7</v>
       </c>
@@ -5681,7 +5690,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="371" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="371" spans="2:5">
       <c r="B371" s="11">
         <v>41691</v>
       </c>
@@ -5695,7 +5704,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="372" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="372" spans="2:5">
       <c r="B372" s="15">
         <v>41712</v>
       </c>
@@ -5709,7 +5718,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="373" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="373" spans="2:5">
       <c r="B373" s="15">
         <v>41726</v>
       </c>
@@ -5723,7 +5732,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="374" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="374" spans="2:5">
       <c r="B374" s="11">
         <v>41740</v>
       </c>
@@ -5737,7 +5746,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="375" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="375" spans="2:5">
       <c r="B375" s="11">
         <v>41768</v>
       </c>
@@ -5751,7 +5760,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="376" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="376" spans="2:5">
       <c r="B376" s="11">
         <v>41795</v>
       </c>
@@ -5765,7 +5774,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="377" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="377" spans="2:5">
       <c r="B377" s="15">
         <v>41817</v>
       </c>
@@ -5779,7 +5788,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="378" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="378" spans="2:5">
       <c r="B378" s="11">
         <v>41838</v>
       </c>
@@ -5793,7 +5802,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="379" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="379" spans="2:5">
       <c r="B379" s="11">
         <v>41873</v>
       </c>
@@ -5807,7 +5816,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="380" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="380" spans="2:5">
       <c r="B380" s="11">
         <v>41887</v>
       </c>
@@ -5821,7 +5830,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="381" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="381" spans="2:5">
       <c r="B381" s="11">
         <v>41908</v>
       </c>
@@ -5835,7 +5844,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="382" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="382" spans="2:5">
       <c r="B382" s="11">
         <v>41922</v>
       </c>
@@ -5849,7 +5858,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="383" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="383" spans="2:5">
       <c r="B383" s="11">
         <v>41936</v>
       </c>
@@ -5863,7 +5872,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="384" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="384" spans="2:5">
       <c r="B384" s="11">
         <v>41957</v>
       </c>
@@ -5877,7 +5886,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="385" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="385" spans="2:5">
       <c r="B385" s="11">
         <v>41971</v>
       </c>
@@ -5891,7 +5900,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="386" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="386" spans="2:5">
       <c r="B386" s="11">
         <v>41985</v>
       </c>
@@ -5905,7 +5914,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="387" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="387" spans="2:5">
       <c r="B387" s="11">
         <v>42020</v>
       </c>
@@ -5919,7 +5928,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="388" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="388" spans="2:5">
       <c r="B388" s="11">
         <v>42034</v>
       </c>
@@ -5933,7 +5942,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="389" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="389" spans="2:5">
       <c r="B389" s="11">
         <v>42062</v>
       </c>
@@ -5947,7 +5956,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="390" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="390" spans="2:5">
       <c r="B390" s="11">
         <v>42076</v>
       </c>
@@ -5961,7 +5970,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="391" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="391" spans="2:5">
       <c r="B391" s="11">
         <v>42090</v>
       </c>
@@ -5975,7 +5984,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="392" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="392" spans="2:5">
       <c r="B392" s="11">
         <v>42111</v>
       </c>
@@ -5989,7 +5998,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="393" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="393" spans="2:5">
       <c r="B393" s="11">
         <v>42146</v>
       </c>
@@ -6003,7 +6012,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="394" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="394" spans="2:5">
       <c r="B394" s="11">
         <v>42167</v>
       </c>
@@ -6017,7 +6026,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="395" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="395" spans="2:5">
       <c r="B395" s="11">
         <v>42188</v>
       </c>
@@ -6031,7 +6040,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="396" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="396" spans="2:5">
       <c r="B396" s="11">
         <v>42209</v>
       </c>
@@ -6045,7 +6054,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="397" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="397" spans="2:5">
       <c r="B397" s="15">
         <v>42237</v>
       </c>
@@ -6059,7 +6068,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="398" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="398" spans="2:5">
       <c r="B398" s="11">
         <v>42258</v>
       </c>
@@ -6073,7 +6082,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="399" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="399" spans="2:5">
       <c r="B399" s="11">
         <v>42272</v>
       </c>
@@ -6087,7 +6096,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="400" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="400" spans="2:5">
       <c r="B400" s="11">
         <v>42286</v>
       </c>
@@ -6101,7 +6110,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="401" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="401" spans="2:5">
       <c r="B401" s="11">
         <v>42300</v>
       </c>
@@ -6115,7 +6124,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="402" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="402" spans="2:5">
       <c r="B402" s="11">
         <v>42321</v>
       </c>
@@ -6129,7 +6138,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="403" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="403" spans="2:5">
       <c r="B403" s="11">
         <v>42335</v>
       </c>
@@ -6143,7 +6152,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="404" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="404" spans="2:5">
       <c r="B404" s="11">
         <v>42349</v>
       </c>
@@ -6157,7 +6166,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="405" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="405" spans="2:5">
       <c r="B405" s="11">
         <v>42384</v>
       </c>
@@ -6171,7 +6180,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="406" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="406" spans="2:5">
       <c r="B406" s="11">
         <v>42398</v>
       </c>
@@ -6185,7 +6194,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="407" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="407" spans="2:5">
       <c r="B407" s="11">
         <v>42419</v>
       </c>
@@ -6199,7 +6208,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="408" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="408" spans="2:5">
       <c r="B408" s="11">
         <v>42447</v>
       </c>
@@ -6213,7 +6222,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="409" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="409" spans="2:5">
       <c r="B409" s="11">
         <v>42468</v>
       </c>
@@ -6227,7 +6236,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="410" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="410" spans="2:5">
       <c r="B410" s="11">
         <v>42482</v>
       </c>
@@ -6241,7 +6250,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="411" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="411" spans="2:5">
       <c r="B411" s="11">
         <v>42503</v>
       </c>
@@ -6255,7 +6264,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="412" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="412" spans="2:5">
       <c r="B412" s="11">
         <v>42524</v>
       </c>
@@ -6269,7 +6278,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="413" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="413" spans="2:5">
       <c r="B413" s="11">
         <v>42545</v>
       </c>
@@ -6283,7 +6292,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="414" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="414" spans="2:5">
       <c r="B414" s="11">
         <v>42559</v>
       </c>
@@ -6297,7 +6306,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="415" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="415" spans="2:5">
       <c r="B415" s="11">
         <v>42573</v>
       </c>
@@ -6311,7 +6320,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="416" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="416" spans="2:5">
       <c r="B416" s="11">
         <v>42594</v>
       </c>
@@ -6325,7 +6334,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="417" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="417" spans="2:5">
       <c r="B417" s="11">
         <v>42636</v>
       </c>
@@ -6339,7 +6348,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="418" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="418" spans="2:5">
       <c r="B418" s="11">
         <v>42657</v>
       </c>
@@ -6353,7 +6362,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="419" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="419" spans="2:5">
       <c r="B419" s="11">
         <v>42671</v>
       </c>
@@ -6367,7 +6376,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="420" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="420" spans="2:5">
       <c r="B420" s="18" t="s">
         <v>9</v>
       </c>
@@ -6381,7 +6390,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="421" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="421" spans="2:5">
       <c r="B421" s="11">
         <v>42699</v>
       </c>
@@ -6395,7 +6404,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="422" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="422" spans="2:5">
       <c r="B422" s="11">
         <v>42713</v>
       </c>
@@ -6409,7 +6418,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="423" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="423" spans="2:5">
       <c r="B423" s="11">
         <v>42748</v>
       </c>
@@ -6423,7 +6432,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="424" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="424" spans="2:5">
       <c r="B424" s="11">
         <v>42762</v>
       </c>
@@ -6437,7 +6446,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="425" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="425" spans="2:5">
       <c r="B425" s="15">
         <v>42783</v>
       </c>
@@ -6451,7 +6460,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="426" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="426" spans="2:5">
       <c r="B426" s="11">
         <v>42804</v>
       </c>
@@ -6465,7 +6474,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="427" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="427" spans="2:5">
       <c r="B427" s="11">
         <v>42832</v>
       </c>
@@ -6479,7 +6488,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="428" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="428" spans="2:5">
       <c r="B428" s="18" t="s">
         <v>10</v>
       </c>
@@ -6501,8 +6510,13 @@
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6512,11 +6526,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
   <headerFooter alignWithMargins="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6526,10 +6545,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
   <headerFooter alignWithMargins="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>